--- a/data/Book3_out.xlsx
+++ b/data/Book3_out.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6614/5-76141/52/63/8-77154</t>
+          <t>6614//6/7/</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4435/45-551</t>
+          <t>4435/</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3050/601/36352/453/398-61804</t>
+          <t>3050/61/3636/46/</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5460/6460-751</t>
+          <t>5460/</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5460/6460-751</t>
+          <t>5460/</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5460/6460-751</t>
+          <t>5460/</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3615-/251/352/453</t>
+          <t>3615-/26/36/46</t>
         </is>
       </c>
     </row>
